--- a/DB/Region-2023-08-18.xlsx
+++ b/DB/Region-2023-08-18.xlsx
@@ -1,43 +1,191 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\Desktop\Django_Proj\AIS\DB\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tablib Dataset" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" calcOnSave="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>countryID</t>
+  </si>
+  <si>
+    <t>RegionName_ar</t>
+  </si>
+  <si>
+    <t>RegionName_en</t>
+  </si>
+  <si>
+    <t>capitalRegion</t>
+  </si>
+  <si>
+    <t>imageRegion</t>
+  </si>
+  <si>
+    <t>مكة</t>
+  </si>
+  <si>
+    <t>Mecca</t>
+  </si>
+  <si>
+    <t>المدينة المنورة</t>
+  </si>
+  <si>
+    <t>Medina</t>
+  </si>
+  <si>
+    <t>الرياض</t>
+  </si>
+  <si>
+    <t>Riyadh</t>
+  </si>
+  <si>
+    <t>الباحة</t>
+  </si>
+  <si>
+    <t>patio</t>
+  </si>
+  <si>
+    <t>الجوف</t>
+  </si>
+  <si>
+    <t>Hollow</t>
+  </si>
+  <si>
+    <t>سكاكا</t>
+  </si>
+  <si>
+    <t>الحدود الشمالية</t>
+  </si>
+  <si>
+    <t>Northern borders</t>
+  </si>
+  <si>
+    <t>عرعر</t>
+  </si>
+  <si>
+    <t>الشرقية</t>
+  </si>
+  <si>
+    <t>Eastern</t>
+  </si>
+  <si>
+    <t>الدمام</t>
+  </si>
+  <si>
+    <t>القصيم</t>
+  </si>
+  <si>
+    <t>Al-Qassim</t>
+  </si>
+  <si>
+    <t>بريدة</t>
+  </si>
+  <si>
+    <t>تبوك</t>
+  </si>
+  <si>
+    <t>Tabuk</t>
+  </si>
+  <si>
+    <t>جازان</t>
+  </si>
+  <si>
+    <t>Jazan</t>
+  </si>
+  <si>
+    <t>حائل</t>
+  </si>
+  <si>
+    <t>Hail</t>
+  </si>
+  <si>
+    <t>عسير</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>أبها</t>
+  </si>
+  <si>
+    <t>نجران</t>
+  </si>
+  <si>
+    <t>Najran</t>
+  </si>
+  <si>
+    <t>وسط السودان</t>
+  </si>
+  <si>
+    <t>شمال السودان</t>
+  </si>
+  <si>
+    <t>جنوب السودان</t>
+  </si>
+  <si>
+    <t>شرق السودان</t>
+  </si>
+  <si>
+    <t>غرب السودان</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,86 +193,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_Tablib Dataset" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -412,51 +520,347 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>countryID</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>RegionName_ar</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>RegionName_en</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>capitalRegion</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>imageRegion</t>
-        </is>
-      </c>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DB/Region-2023-08-18.xlsx
+++ b/DB/Region-2023-08-18.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\Desktop\Django_Proj\AIS\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Django_Proj\src\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,6 @@
     <t>countryID</t>
   </si>
   <si>
-    <t>RegionName_ar</t>
-  </si>
-  <si>
-    <t>RegionName_en</t>
-  </si>
-  <si>
     <t>capitalRegion</t>
   </si>
   <si>
@@ -145,6 +139,12 @@
   </si>
   <si>
     <t>غرب السودان</t>
+  </si>
+  <si>
+    <t>name_en</t>
+  </si>
+  <si>
+    <t>name_ar</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,16 +546,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -580,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -594,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -608,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="1"/>
@@ -622,7 +622,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -636,13 +636,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -654,13 +654,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -672,13 +672,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -690,13 +690,13 @@
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -708,13 +708,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -726,13 +726,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -744,13 +744,13 @@
         <v>2</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -762,13 +762,13 @@
         <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="F14" s="2"/>
     </row>
@@ -780,13 +780,13 @@
         <v>2</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F15" s="2"/>
     </row>
@@ -798,13 +798,13 @@
         <v>2</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F16" s="2"/>
     </row>
@@ -816,13 +816,13 @@
         <v>2</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F17" s="2"/>
     </row>
@@ -834,13 +834,13 @@
         <v>2</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="F18" s="2"/>
     </row>
@@ -852,13 +852,13 @@
         <v>2</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F19" s="2"/>
     </row>
